--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,9 @@
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -67,18 +70,21 @@
     <t>low</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -88,73 +94,82 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>join</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>like</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>relief</t>
@@ -169,13 +184,10 @@
     <t>hope</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
@@ -184,34 +196,31 @@
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -569,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,16 +668,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -680,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -688,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -738,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -788,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.708904109589041</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C6">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6">
         <v>0.8846153846153846</v>
@@ -838,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6896551724137931</v>
+        <v>0.7226027397260274</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5526315789473685</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8359375</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L8">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="M8">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5384615384615384</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,16 +968,16 @@
         <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3733333333333334</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.8359375</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3691275167785235</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3624031007751938</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="C12">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="D12">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>329</v>
+        <v>93</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.7887323943661971</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3559322033898305</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.291005291005291</v>
+        <v>0.3275193798449613</v>
       </c>
       <c r="C14">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="D14">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1206,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>134</v>
+        <v>347</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.7647058823529411</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2597402597402597</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1256,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.7586206896551724</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1280,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1288,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1626984126984127</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1306,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>211</v>
+        <v>56</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L16">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M16">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1330,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1338,89 +1347,137 @@
         <v>22</v>
       </c>
       <c r="B17">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>70</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L17">
+        <v>37</v>
+      </c>
+      <c r="M17">
+        <v>37</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.1626984126984127</v>
+      </c>
+      <c r="C18">
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>211</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18">
+        <v>0.71875</v>
+      </c>
+      <c r="L18">
+        <v>115</v>
+      </c>
+      <c r="M18">
+        <v>115</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
         <v>0.09919571045576407</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>37</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>37</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>336</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17">
-        <v>0.746031746031746</v>
-      </c>
-      <c r="L17">
-        <v>47</v>
-      </c>
-      <c r="M17">
-        <v>47</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>0.73125</v>
-      </c>
-      <c r="L18">
-        <v>117</v>
-      </c>
-      <c r="M18">
-        <v>117</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>0.7169811320754716</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L19">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1432,21 +1489,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.7127659574468085</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L20">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M20">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1458,21 +1515,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.6944444444444444</v>
+        <v>0.625</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1484,21 +1541,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.6875</v>
+        <v>0.6161879895561357</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1510,21 +1567,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.6475195822454308</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L23">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="M23">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1536,21 +1593,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.5882352941176471</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1562,21 +1619,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.5647058823529412</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L25">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1588,21 +1645,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>148</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.54</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1614,21 +1671,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.5333333333333333</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1640,21 +1697,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.5186440677966102</v>
+        <v>0.55</v>
       </c>
       <c r="L28">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1666,21 +1723,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>142</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.5076923076923077</v>
+        <v>0.54</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1692,21 +1749,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.5056179775280899</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L30">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1718,21 +1775,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.4686192468619247</v>
+        <v>0.5220338983050847</v>
       </c>
       <c r="L31">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="M31">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1744,21 +1801,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>0.4523809523809524</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1770,21 +1827,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>0.4383561643835616</v>
+        <v>0.4728033472803347</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1796,21 +1853,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K34">
-        <v>0.4102564102564102</v>
+        <v>0.453125</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1822,21 +1879,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K35">
-        <v>0.375</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1853,16 +1910,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K36">
-        <v>0.3</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1874,21 +1931,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K37">
-        <v>0.09330143540669857</v>
+        <v>0.3</v>
       </c>
       <c r="L37">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1900,21 +1957,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>379</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K38">
-        <v>0.08653846153846154</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1926,21 +1983,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K39">
-        <v>0.05369127516778523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L39">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M39">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1952,21 +2009,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>846</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K40">
-        <v>0.03995560488346282</v>
+        <v>0.05480984340044743</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1978,111 +2035,137 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>865</v>
+        <v>845</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K41">
-        <v>0.02616822429906542</v>
+        <v>0.03662597114317425</v>
       </c>
       <c r="L41">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M41">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="N41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>2084</v>
+        <v>868</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K42">
-        <v>0.02193995381062356</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>847</v>
+        <v>627</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K43">
-        <v>0.01352221506761108</v>
+        <v>0.03114186851211072</v>
       </c>
       <c r="L43">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N43">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>3064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K44">
-        <v>0.00594679186228482</v>
+        <v>0.02476635514018691</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="M44">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N44">
-        <v>0.76</v>
+        <v>0.95</v>
       </c>
       <c r="O44">
-        <v>0.24</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>3176</v>
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K45">
+        <v>0.01160541586073501</v>
+      </c>
+      <c r="L45">
+        <v>36</v>
+      </c>
+      <c r="M45">
+        <v>41</v>
+      </c>
+      <c r="N45">
+        <v>0.88</v>
+      </c>
+      <c r="O45">
+        <v>0.12</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>3066</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,9 +43,6 @@
     <t>crude</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -64,18 +61,18 @@
     <t>shit</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -94,115 +91,130 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>energy</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
+    <t>new</t>
   </si>
   <si>
     <t>store</t>
@@ -214,13 +226,13 @@
     <t>consumer</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -578,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,7 +598,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
         <v>37</v>
@@ -668,16 +680,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -689,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -747,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7692307692307693</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7226027397260274</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C7">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6551724137931034</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.8536585365853658</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5263157894736842</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,16 +980,16 @@
         <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,13 +1009,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4871794871794872</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8359375</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L10">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4133333333333333</v>
+        <v>0.36</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.8166666666666667</v>
+        <v>0.8203125</v>
       </c>
       <c r="L11">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M11">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3758389261744967</v>
+        <v>0.3565891472868217</v>
       </c>
       <c r="C12">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="D12">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>93</v>
+        <v>332</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3389830508474576</v>
+        <v>0.3422818791946309</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.7887323943661971</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,13 +1209,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3275193798449613</v>
+        <v>0.291005291005291</v>
       </c>
       <c r="C14">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="D14">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>347</v>
+        <v>134</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.8</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1259,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2962962962962963</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C15">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1265,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>0.7619047619047619</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1297,13 +1309,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2727272727272727</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1315,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0.7547169811320755</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L16">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1339,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1347,13 +1359,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2222222222222222</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1365,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.7254901960784313</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1389,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1397,87 +1409,63 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1626984126984127</v>
+        <v>0.08847184986595175</v>
       </c>
       <c r="C18">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>33</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>340</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>0.7735849056603774</v>
+      </c>
+      <c r="L18">
+        <v>82</v>
+      </c>
+      <c r="M18">
+        <v>82</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D18">
-        <v>41</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>211</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.71875</v>
-      </c>
-      <c r="L18">
-        <v>115</v>
-      </c>
-      <c r="M18">
-        <v>115</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.09919571045576407</v>
-      </c>
-      <c r="C19">
-        <v>37</v>
-      </c>
-      <c r="D19">
-        <v>37</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>336</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K19">
-        <v>0.7021276595744681</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1489,21 +1477,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>0.6808510638297872</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L20">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1515,21 +1503,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>0.625</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1541,47 +1529,47 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22">
+        <v>0.71875</v>
+      </c>
+      <c r="L22">
+        <v>115</v>
+      </c>
+      <c r="M22">
+        <v>115</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>45</v>
-      </c>
-      <c r="K22">
-        <v>0.6161879895561357</v>
-      </c>
-      <c r="L22">
-        <v>236</v>
-      </c>
-      <c r="M22">
-        <v>236</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>0.5852941176470589</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L23">
-        <v>199</v>
+        <v>63</v>
       </c>
       <c r="M23">
-        <v>199</v>
+        <v>63</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1593,21 +1581,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>141</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1619,21 +1607,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>0.5813953488372093</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1645,21 +1633,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>0.5588235294117647</v>
+        <v>0.64</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1671,21 +1659,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>0.550561797752809</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L27">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1697,21 +1685,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>0.55</v>
+        <v>0.625</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1728,16 +1716,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>0.54</v>
+        <v>0.618798955613577</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1749,21 +1737,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>23</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>0.5333333333333333</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1775,21 +1763,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K31">
-        <v>0.5220338983050847</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="L31">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="M31">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1801,21 +1789,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K32">
-        <v>0.4923076923076923</v>
+        <v>0.55</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1827,21 +1815,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>0.4728033472803347</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L33">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="M33">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1853,21 +1841,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>126</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K34">
-        <v>0.453125</v>
+        <v>0.5146443514644351</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1879,21 +1867,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>35</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K35">
-        <v>0.4520547945205479</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1905,15 +1893,15 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>40</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K36">
-        <v>0.4358974358974359</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L36">
         <v>34</v>
@@ -1931,21 +1919,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K37">
-        <v>0.3</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1957,21 +1945,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K38">
-        <v>0.09134615384615384</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1983,21 +1971,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>378</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K39">
-        <v>0.09090909090909091</v>
+        <v>0.421875</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M39">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2009,21 +1997,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>380</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K40">
-        <v>0.05480984340044743</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L40">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2035,21 +2023,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>845</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K41">
-        <v>0.03662597114317425</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L41">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2061,47 +2049,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>868</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K42">
-        <v>0.03389830508474576</v>
+        <v>0.1124401913875598</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>627</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K43">
-        <v>0.03114186851211072</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M43">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2113,59 +2101,189 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>840</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K44">
-        <v>0.02476635514018691</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="L44">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="N44">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>2087</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K45">
+        <v>0.05704697986577181</v>
+      </c>
+      <c r="L45">
+        <v>51</v>
+      </c>
+      <c r="M45">
+        <v>51</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K45">
-        <v>0.01160541586073501</v>
-      </c>
-      <c r="L45">
-        <v>36</v>
-      </c>
-      <c r="M45">
-        <v>41</v>
-      </c>
-      <c r="N45">
-        <v>0.88</v>
-      </c>
-      <c r="O45">
-        <v>0.12</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>3066</v>
+      <c r="K46">
+        <v>0.04772475027746948</v>
+      </c>
+      <c r="L46">
+        <v>43</v>
+      </c>
+      <c r="M46">
+        <v>43</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K47">
+        <v>0.03697996918335902</v>
+      </c>
+      <c r="L47">
+        <v>24</v>
+      </c>
+      <c r="M47">
+        <v>25</v>
+      </c>
+      <c r="N47">
+        <v>0.96</v>
+      </c>
+      <c r="O47">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K48">
+        <v>0.03085553997194951</v>
+      </c>
+      <c r="L48">
+        <v>66</v>
+      </c>
+      <c r="M48">
+        <v>70</v>
+      </c>
+      <c r="N48">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O48">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K49">
+        <v>0.01739690721649485</v>
+      </c>
+      <c r="L49">
+        <v>54</v>
+      </c>
+      <c r="M49">
+        <v>57</v>
+      </c>
+      <c r="N49">
+        <v>0.95</v>
+      </c>
+      <c r="O49">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K50">
+        <v>0.006261740763932373</v>
+      </c>
+      <c r="L50">
+        <v>20</v>
+      </c>
+      <c r="M50">
+        <v>27</v>
+      </c>
+      <c r="N50">
+        <v>0.74</v>
+      </c>
+      <c r="O50">
+        <v>0.26</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>3174</v>
       </c>
     </row>
   </sheetData>
